--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Itga7.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H2">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I2">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J2">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.165574666666667</v>
+        <v>2.655702666666667</v>
       </c>
       <c r="N2">
-        <v>9.496724</v>
+        <v>7.967108</v>
       </c>
       <c r="O2">
-        <v>0.07285974214006047</v>
+        <v>0.05887637219457465</v>
       </c>
       <c r="P2">
-        <v>0.07285974214006045</v>
+        <v>0.05887637219457464</v>
       </c>
       <c r="Q2">
-        <v>54.49170109601111</v>
+        <v>58.80747529862712</v>
       </c>
       <c r="R2">
-        <v>490.4253098641</v>
+        <v>529.267277687644</v>
       </c>
       <c r="S2">
-        <v>0.003284996998071592</v>
+        <v>0.003274902022718876</v>
       </c>
       <c r="T2">
-        <v>0.003284996998071592</v>
+        <v>0.003274902022718875</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H3">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I3">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J3">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>15.064787</v>
       </c>
       <c r="O3">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="P3">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="Q3">
-        <v>86.44095272001944</v>
+        <v>111.1974494862601</v>
       </c>
       <c r="R3">
-        <v>777.968574480175</v>
+        <v>1000.777045376341</v>
       </c>
       <c r="S3">
-        <v>0.005211036992502673</v>
+        <v>0.006192422823705796</v>
       </c>
       <c r="T3">
-        <v>0.005211036992502672</v>
+        <v>0.006192422823705792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H4">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I4">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J4">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3650223333333334</v>
+        <v>0.9216453333333332</v>
       </c>
       <c r="N4">
-        <v>1.095067</v>
+        <v>2.764936</v>
       </c>
       <c r="O4">
-        <v>0.008401454990804157</v>
+        <v>0.02043268410948847</v>
       </c>
       <c r="P4">
-        <v>0.008401454990804155</v>
+        <v>0.02043268410948846</v>
       </c>
       <c r="Q4">
-        <v>6.283436650797223</v>
+        <v>20.40877386402756</v>
       </c>
       <c r="R4">
-        <v>56.55092985717501</v>
+        <v>183.678964776248</v>
       </c>
       <c r="S4">
-        <v>0.000378792919293776</v>
+        <v>0.001136534674701063</v>
       </c>
       <c r="T4">
-        <v>0.000378792919293776</v>
+        <v>0.001136534674701063</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H5">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I5">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J5">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.42231266666666</v>
+        <v>35.230657</v>
       </c>
       <c r="N5">
-        <v>103.266938</v>
+        <v>105.691971</v>
       </c>
       <c r="O5">
-        <v>0.7922734697010897</v>
+        <v>0.7810562907612387</v>
       </c>
       <c r="P5">
-        <v>0.7922734697010895</v>
+        <v>0.7810562907612385</v>
       </c>
       <c r="Q5">
-        <v>592.5402400444945</v>
+        <v>780.1423018045838</v>
       </c>
       <c r="R5">
-        <v>5332.86216040045</v>
+        <v>7021.280716241253</v>
       </c>
       <c r="S5">
-        <v>0.03572090558070817</v>
+        <v>0.04344498023787865</v>
       </c>
       <c r="T5">
-        <v>0.03572090558070817</v>
+        <v>0.04344498023787862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H6">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I6">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J6">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4730086666666666</v>
+        <v>1.276824333333333</v>
       </c>
       <c r="N6">
-        <v>1.419026</v>
+        <v>3.830473</v>
       </c>
       <c r="O6">
-        <v>0.01088689830830521</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="P6">
-        <v>0.0108868983083052</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="Q6">
-        <v>8.142296294961112</v>
+        <v>28.27380353442656</v>
       </c>
       <c r="R6">
-        <v>73.28066665464999</v>
+        <v>254.464231809839</v>
       </c>
       <c r="S6">
-        <v>0.0004908530720894426</v>
+        <v>0.001574526638231846</v>
       </c>
       <c r="T6">
-        <v>0.0004908530720894426</v>
+        <v>0.001574526638231845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I7">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J7">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.165574666666667</v>
+        <v>2.655702666666667</v>
       </c>
       <c r="N7">
-        <v>9.496724</v>
+        <v>7.967108</v>
       </c>
       <c r="O7">
-        <v>0.07285974214006047</v>
+        <v>0.05887637219457465</v>
       </c>
       <c r="P7">
-        <v>0.07285974214006045</v>
+        <v>0.05887637219457464</v>
       </c>
       <c r="Q7">
-        <v>1097.654000110016</v>
+        <v>920.8573362254718</v>
       </c>
       <c r="R7">
-        <v>9878.886000990144</v>
+        <v>8287.716026029248</v>
       </c>
       <c r="S7">
-        <v>0.06617136229477387</v>
+        <v>0.05128119406123727</v>
       </c>
       <c r="T7">
-        <v>0.06617136229477387</v>
+        <v>0.05128119406123726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I8">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J8">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>15.064787</v>
       </c>
       <c r="O8">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="P8">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="Q8">
         <v>1741.223995912208</v>
@@ -948,10 +948,10 @@
         <v>15671.01596320987</v>
       </c>
       <c r="S8">
-        <v>0.1049685637353049</v>
+        <v>0.09696620977627068</v>
       </c>
       <c r="T8">
-        <v>0.1049685637353049</v>
+        <v>0.09696620977627066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I9">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J9">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3650223333333334</v>
+        <v>0.9216453333333332</v>
       </c>
       <c r="N9">
-        <v>1.095067</v>
+        <v>2.764936</v>
       </c>
       <c r="O9">
-        <v>0.008401454990804157</v>
+        <v>0.02043268410948847</v>
       </c>
       <c r="P9">
-        <v>0.008401454990804155</v>
+        <v>0.02043268410948846</v>
       </c>
       <c r="Q9">
-        <v>126.570454499728</v>
+        <v>319.5778944874239</v>
       </c>
       <c r="R9">
-        <v>1139.134090497552</v>
+        <v>2876.201050386815</v>
       </c>
       <c r="S9">
-        <v>0.007630218082999058</v>
+        <v>0.01779682409010912</v>
       </c>
       <c r="T9">
-        <v>0.007630218082999058</v>
+        <v>0.01779682409010912</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I10">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J10">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.42231266666666</v>
+        <v>35.230657</v>
       </c>
       <c r="N10">
-        <v>103.266938</v>
+        <v>105.691971</v>
       </c>
       <c r="O10">
-        <v>0.7922734697010897</v>
+        <v>0.7810562907612387</v>
       </c>
       <c r="P10">
-        <v>0.7922734697010895</v>
+        <v>0.7810562907612385</v>
       </c>
       <c r="Q10">
-        <v>11935.83888242019</v>
+        <v>12216.12997783886</v>
       </c>
       <c r="R10">
-        <v>107422.5499417817</v>
+        <v>109945.1698005498</v>
       </c>
       <c r="S10">
-        <v>0.719544336285855</v>
+        <v>0.6802983561369649</v>
       </c>
       <c r="T10">
-        <v>0.719544336285855</v>
+        <v>0.6802983561369647</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I11">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J11">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4730086666666666</v>
+        <v>1.276824333333333</v>
       </c>
       <c r="N11">
-        <v>1.419026</v>
+        <v>3.830473</v>
       </c>
       <c r="O11">
-        <v>0.01088689830830521</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="P11">
-        <v>0.0108868983083052</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="Q11">
-        <v>164.014408037984</v>
+        <v>442.735201187632</v>
       </c>
       <c r="R11">
-        <v>1476.129672341856</v>
+        <v>3984.616810688688</v>
       </c>
       <c r="S11">
-        <v>0.009887502632666146</v>
+        <v>0.0246552738157095</v>
       </c>
       <c r="T11">
-        <v>0.009887502632666146</v>
+        <v>0.0246552738157095</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H12">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I12">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J12">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.165574666666667</v>
+        <v>2.655702666666667</v>
       </c>
       <c r="N12">
-        <v>9.496724</v>
+        <v>7.967108</v>
       </c>
       <c r="O12">
-        <v>0.07285974214006047</v>
+        <v>0.05887637219457465</v>
       </c>
       <c r="P12">
-        <v>0.07285974214006045</v>
+        <v>0.05887637219457464</v>
       </c>
       <c r="Q12">
-        <v>0.1346698774693333</v>
+        <v>0.4093402714635556</v>
       </c>
       <c r="R12">
-        <v>1.212028897224</v>
+        <v>3.684062443172</v>
       </c>
       <c r="S12">
-        <v>8.118486564366274E-06</v>
+        <v>2.279555917319899E-05</v>
       </c>
       <c r="T12">
-        <v>8.118486564366274E-06</v>
+        <v>2.279555917319898E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H13">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I13">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J13">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>15.064787</v>
       </c>
       <c r="O13">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="P13">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="Q13">
-        <v>0.2136287228513333</v>
+        <v>0.7740103435425556</v>
       </c>
       <c r="R13">
-        <v>1.922658505662</v>
+        <v>6.966093091883</v>
       </c>
       <c r="S13">
-        <v>1.287846954955622E-05</v>
+        <v>4.310350047848464E-05</v>
       </c>
       <c r="T13">
-        <v>1.287846954955622E-05</v>
+        <v>4.310350047848462E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H14">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I14">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J14">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3650223333333334</v>
+        <v>0.9216453333333332</v>
       </c>
       <c r="N14">
-        <v>1.095067</v>
+        <v>2.764936</v>
       </c>
       <c r="O14">
-        <v>0.008401454990804157</v>
+        <v>0.02043268410948847</v>
       </c>
       <c r="P14">
-        <v>0.008401454990804155</v>
+        <v>0.02043268410948846</v>
       </c>
       <c r="Q14">
-        <v>0.01552878010466667</v>
+        <v>0.1420590323137778</v>
       </c>
       <c r="R14">
-        <v>0.139759020942</v>
+        <v>1.278531290824</v>
       </c>
       <c r="S14">
-        <v>9.361424767720831E-07</v>
+        <v>7.911059094229438E-06</v>
       </c>
       <c r="T14">
-        <v>9.361424767720832E-07</v>
+        <v>7.911059094229433E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H15">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I15">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J15">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.42231266666666</v>
+        <v>35.230657</v>
       </c>
       <c r="N15">
-        <v>103.266938</v>
+        <v>105.691971</v>
       </c>
       <c r="O15">
-        <v>0.7922734697010897</v>
+        <v>0.7810562907612387</v>
       </c>
       <c r="P15">
-        <v>0.7922734697010895</v>
+        <v>0.7810562907612385</v>
       </c>
       <c r="Q15">
-        <v>1.464394025465333</v>
+        <v>5.430324290904334</v>
       </c>
       <c r="R15">
-        <v>13.179546229188</v>
+        <v>48.872918618139</v>
       </c>
       <c r="S15">
-        <v>8.82800478034578E-05</v>
+        <v>0.0003024067929118736</v>
       </c>
       <c r="T15">
-        <v>8.82800478034578E-05</v>
+        <v>0.0003024067929118734</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H16">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I16">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J16">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4730086666666666</v>
+        <v>1.276824333333333</v>
       </c>
       <c r="N16">
-        <v>1.419026</v>
+        <v>3.830473</v>
       </c>
       <c r="O16">
-        <v>0.01088689830830521</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="P16">
-        <v>0.0108868983083052</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="Q16">
-        <v>0.02012273469733333</v>
+        <v>0.1968050210507778</v>
       </c>
       <c r="R16">
-        <v>0.181104612276</v>
+        <v>1.771245189457</v>
       </c>
       <c r="S16">
-        <v>1.21308606162361E-06</v>
+        <v>1.095978288895306E-05</v>
       </c>
       <c r="T16">
-        <v>1.21308606162361E-06</v>
+        <v>1.095978288895306E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H17">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I17">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J17">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.165574666666667</v>
+        <v>2.655702666666667</v>
       </c>
       <c r="N17">
-        <v>9.496724</v>
+        <v>7.967108</v>
       </c>
       <c r="O17">
-        <v>0.07285974214006047</v>
+        <v>0.05887637219457465</v>
       </c>
       <c r="P17">
-        <v>0.07285974214006045</v>
+        <v>0.05887637219457464</v>
       </c>
       <c r="Q17">
-        <v>56.1153275081191</v>
+        <v>76.7650897502791</v>
       </c>
       <c r="R17">
-        <v>505.037947573072</v>
+        <v>690.8858077525119</v>
       </c>
       <c r="S17">
-        <v>0.00338287626743716</v>
+        <v>0.004274935225849665</v>
       </c>
       <c r="T17">
-        <v>0.00338287626743716</v>
+        <v>0.004274935225849664</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H18">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I18">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J18">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>15.064787</v>
       </c>
       <c r="O18">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="P18">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="Q18">
-        <v>89.01653415904842</v>
+        <v>145.1530123758631</v>
       </c>
       <c r="R18">
-        <v>801.1488074314358</v>
+        <v>1306.377111382768</v>
       </c>
       <c r="S18">
-        <v>0.005366304255688157</v>
+        <v>0.008083358304697526</v>
       </c>
       <c r="T18">
-        <v>0.005366304255688156</v>
+        <v>0.008083358304697525</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H19">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I19">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J19">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3650223333333334</v>
+        <v>0.9216453333333332</v>
       </c>
       <c r="N19">
-        <v>1.095067</v>
+        <v>2.764936</v>
       </c>
       <c r="O19">
-        <v>0.008401454990804157</v>
+        <v>0.02043268410948847</v>
       </c>
       <c r="P19">
-        <v>0.008401454990804155</v>
+        <v>0.02043268410948846</v>
       </c>
       <c r="Q19">
-        <v>6.470656970586222</v>
+        <v>26.64085389501155</v>
       </c>
       <c r="R19">
-        <v>58.235912735276</v>
+        <v>239.767685055104</v>
       </c>
       <c r="S19">
-        <v>0.0003900793753249657</v>
+        <v>0.0014835900685192</v>
       </c>
       <c r="T19">
-        <v>0.0003900793753249657</v>
+        <v>0.0014835900685192</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H20">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I20">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J20">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>34.42231266666666</v>
+        <v>35.230657</v>
       </c>
       <c r="N20">
-        <v>103.266938</v>
+        <v>105.691971</v>
       </c>
       <c r="O20">
-        <v>0.7922734697010897</v>
+        <v>0.7810562907612387</v>
       </c>
       <c r="P20">
-        <v>0.7922734697010895</v>
+        <v>0.7810562907612385</v>
       </c>
       <c r="Q20">
-        <v>610.1954786335402</v>
+        <v>1018.368727987483</v>
       </c>
       <c r="R20">
-        <v>5491.759307701863</v>
+        <v>9165.318551887343</v>
       </c>
       <c r="S20">
-        <v>0.03678524023348521</v>
+        <v>0.05671146040914486</v>
       </c>
       <c r="T20">
-        <v>0.03678524023348521</v>
+        <v>0.05671146040914485</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H21">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I21">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J21">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4730086666666666</v>
+        <v>1.276824333333333</v>
       </c>
       <c r="N21">
-        <v>1.419026</v>
+        <v>3.830473</v>
       </c>
       <c r="O21">
-        <v>0.01088689830830521</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="P21">
-        <v>0.0108868983083052</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="Q21">
-        <v>8.384902913103108</v>
+        <v>36.90757093176356</v>
       </c>
       <c r="R21">
-        <v>75.46412621792798</v>
+        <v>332.168138385872</v>
       </c>
       <c r="S21">
-        <v>0.0005054784553364174</v>
+        <v>0.002055328477957879</v>
       </c>
       <c r="T21">
-        <v>0.0005054784553364174</v>
+        <v>0.002055328477957879</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H22">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I22">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J22">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.165574666666667</v>
+        <v>2.655702666666667</v>
       </c>
       <c r="N22">
-        <v>9.496724</v>
+        <v>7.967108</v>
       </c>
       <c r="O22">
-        <v>0.07285974214006047</v>
+        <v>0.05887637219457465</v>
       </c>
       <c r="P22">
-        <v>0.07285974214006045</v>
+        <v>0.05887637219457464</v>
       </c>
       <c r="Q22">
-        <v>0.2054943346782222</v>
+        <v>0.4048468225515555</v>
       </c>
       <c r="R22">
-        <v>1.849449012104</v>
+        <v>3.643621402964</v>
       </c>
       <c r="S22">
-        <v>1.238809321348373E-05</v>
+        <v>2.2545325595645E-05</v>
       </c>
       <c r="T22">
-        <v>1.238809321348373E-05</v>
+        <v>2.2545325595645E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H23">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I23">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J23">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>15.064787</v>
       </c>
       <c r="O23">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="P23">
-        <v>0.1155784348597406</v>
+        <v>0.111327724745791</v>
       </c>
       <c r="Q23">
-        <v>0.3259785565668889</v>
+        <v>0.7655138036745555</v>
       </c>
       <c r="R23">
-        <v>2.933807009102</v>
+        <v>6.889624233070999</v>
       </c>
       <c r="S23">
-        <v>1.965140669532756E-05</v>
+        <v>4.263034063854037E-05</v>
       </c>
       <c r="T23">
-        <v>1.965140669532755E-05</v>
+        <v>4.263034063854035E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H24">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I24">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J24">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3650223333333334</v>
+        <v>0.9216453333333332</v>
       </c>
       <c r="N24">
-        <v>1.095067</v>
+        <v>2.764936</v>
       </c>
       <c r="O24">
-        <v>0.008401454990804157</v>
+        <v>0.02043268410948847</v>
       </c>
       <c r="P24">
-        <v>0.008401454990804155</v>
+        <v>0.02043268410948846</v>
       </c>
       <c r="Q24">
-        <v>0.02369554644244445</v>
+        <v>0.1404996084097777</v>
       </c>
       <c r="R24">
-        <v>0.2132599179820001</v>
+        <v>1.264496475688</v>
       </c>
       <c r="S24">
-        <v>1.428470709584694E-06</v>
+        <v>7.824217064852177E-06</v>
       </c>
       <c r="T24">
-        <v>1.428470709584693E-06</v>
+        <v>7.824217064852175E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H25">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I25">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J25">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>34.42231266666666</v>
+        <v>35.230657</v>
       </c>
       <c r="N25">
-        <v>103.266938</v>
+        <v>105.691971</v>
       </c>
       <c r="O25">
-        <v>0.7922734697010897</v>
+        <v>0.7810562907612387</v>
       </c>
       <c r="P25">
-        <v>0.7922734697010895</v>
+        <v>0.7810562907612385</v>
       </c>
       <c r="Q25">
-        <v>2.234535900860889</v>
+        <v>5.370714019260333</v>
       </c>
       <c r="R25">
-        <v>20.110823107748</v>
+        <v>48.336426173343</v>
       </c>
       <c r="S25">
-        <v>0.0001347075532378371</v>
+        <v>0.0002990871843384663</v>
       </c>
       <c r="T25">
-        <v>0.000134707553237837</v>
+        <v>0.0002990871843384662</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H26">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I26">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J26">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4730086666666666</v>
+        <v>1.276824333333333</v>
       </c>
       <c r="N26">
-        <v>1.419026</v>
+        <v>3.830473</v>
       </c>
       <c r="O26">
-        <v>0.01088689830830521</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="P26">
-        <v>0.0108868983083052</v>
+        <v>0.02830692818890731</v>
       </c>
       <c r="Q26">
-        <v>0.03070551526622222</v>
+        <v>0.1946446342787778</v>
       </c>
       <c r="R26">
-        <v>0.276349637396</v>
+        <v>1.751801708509</v>
       </c>
       <c r="S26">
-        <v>1.851062151575318E-06</v>
+        <v>1.08394741191317E-05</v>
       </c>
       <c r="T26">
-        <v>1.851062151575318E-06</v>
+        <v>1.083947411913169E-05</v>
       </c>
     </row>
   </sheetData>
